--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H2">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I2">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J2">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.50134427484324</v>
+        <v>0.175393</v>
       </c>
       <c r="N2">
-        <v>4.50134427484324</v>
+        <v>0.526179</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01226364905153833</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01818959939974001</v>
       </c>
       <c r="Q2">
-        <v>26.48671614380075</v>
+        <v>1.082951040953667</v>
       </c>
       <c r="R2">
-        <v>26.48671614380075</v>
+        <v>9.746559368583</v>
       </c>
       <c r="S2">
-        <v>0.5022948862308193</v>
+        <v>0.005881694619819714</v>
       </c>
       <c r="T2">
-        <v>0.5022948862308193</v>
+        <v>0.009865807728331533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.20185509552028</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H3">
-        <v>2.20185509552028</v>
+        <v>18.523277</v>
       </c>
       <c r="I3">
-        <v>0.1879583414932692</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J3">
-        <v>0.1879583414932692</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>4.50134427484324</v>
+        <v>0.090517</v>
       </c>
       <c r="N3">
-        <v>4.50134427484324</v>
+        <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006329036627448615</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.009387307183674753</v>
       </c>
       <c r="Q3">
-        <v>9.911307828254627</v>
+        <v>0.5588904880696667</v>
       </c>
       <c r="R3">
-        <v>9.911307828254627</v>
+        <v>5.030014392627</v>
       </c>
       <c r="S3">
-        <v>0.1879583414932692</v>
+        <v>0.003035431014363293</v>
       </c>
       <c r="T3">
-        <v>0.1879583414932692</v>
+        <v>0.005091556208887386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6.174425666666667</v>
+      </c>
+      <c r="H4">
+        <v>18.523277</v>
+      </c>
+      <c r="I4">
+        <v>0.4796039576068858</v>
+      </c>
+      <c r="J4">
+        <v>0.5423873011998577</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.173501</v>
+      </c>
+      <c r="O4">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P4">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q4">
+        <v>0.3570896758641111</v>
+      </c>
+      <c r="R4">
+        <v>3.213807082777</v>
+      </c>
+      <c r="S4">
+        <v>0.001939415860825575</v>
+      </c>
+      <c r="T4">
+        <v>0.00325312775058155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="H4">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="I4">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="J4">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.50134427484324</v>
-      </c>
-      <c r="N4">
-        <v>4.50134427484324</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>16.33338315524976</v>
-      </c>
-      <c r="R4">
-        <v>16.33338315524976</v>
-      </c>
-      <c r="S4">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="T4">
-        <v>0.3097467722759116</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.174425666666667</v>
+      </c>
+      <c r="H5">
+        <v>18.523277</v>
+      </c>
+      <c r="I5">
+        <v>0.4796039576068858</v>
+      </c>
+      <c r="J5">
+        <v>0.5423873011998577</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.978117</v>
+      </c>
+      <c r="N5">
+        <v>27.956234</v>
+      </c>
+      <c r="O5">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P5">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q5">
+        <v>86.30684437646967</v>
+      </c>
+      <c r="R5">
+        <v>517.8410662588179</v>
+      </c>
+      <c r="S5">
+        <v>0.4687474161118773</v>
+      </c>
+      <c r="T5">
+        <v>0.5241768095120571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H6">
+        <v>6.686821</v>
+      </c>
+      <c r="I6">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J6">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.175393</v>
+      </c>
+      <c r="N6">
+        <v>0.526179</v>
+      </c>
+      <c r="O6">
+        <v>0.01226364905153833</v>
+      </c>
+      <c r="P6">
+        <v>0.01818959939974001</v>
+      </c>
+      <c r="Q6">
+        <v>0.3909405318843334</v>
+      </c>
+      <c r="R6">
+        <v>3.518464786959</v>
+      </c>
+      <c r="S6">
+        <v>0.002123265721254262</v>
+      </c>
+      <c r="T6">
+        <v>0.003561512916951444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H7">
+        <v>6.686821</v>
+      </c>
+      <c r="I7">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J7">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.090517</v>
+      </c>
+      <c r="N7">
+        <v>0.271551</v>
+      </c>
+      <c r="O7">
+        <v>0.006329036627448615</v>
+      </c>
+      <c r="P7">
+        <v>0.009387307183674753</v>
+      </c>
+      <c r="Q7">
+        <v>0.2017569921523334</v>
+      </c>
+      <c r="R7">
+        <v>1.815812929371</v>
+      </c>
+      <c r="S7">
+        <v>0.001095777159241087</v>
+      </c>
+      <c r="T7">
+        <v>0.001838029252613809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H8">
+        <v>6.686821</v>
+      </c>
+      <c r="I8">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J8">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.173501</v>
+      </c>
+      <c r="O8">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P8">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q8">
+        <v>0.1289077922578889</v>
+      </c>
+      <c r="R8">
+        <v>1.160170130321</v>
+      </c>
+      <c r="S8">
+        <v>0.0007001205405448254</v>
+      </c>
+      <c r="T8">
+        <v>0.001174364717337622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H9">
+        <v>6.686821</v>
+      </c>
+      <c r="I9">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J9">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.978117</v>
+      </c>
+      <c r="N9">
+        <v>27.956234</v>
+      </c>
+      <c r="O9">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P9">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q9">
+        <v>31.15638876535234</v>
+      </c>
+      <c r="R9">
+        <v>186.938332592114</v>
+      </c>
+      <c r="S9">
+        <v>0.1692157422119552</v>
+      </c>
+      <c r="T9">
+        <v>0.1892255078600954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.470643</v>
+      </c>
+      <c r="H10">
+        <v>8.941286</v>
+      </c>
+      <c r="I10">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J10">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.175393</v>
+      </c>
+      <c r="N10">
+        <v>0.526179</v>
+      </c>
+      <c r="O10">
+        <v>0.01226364905153833</v>
+      </c>
+      <c r="P10">
+        <v>0.01818959939974001</v>
+      </c>
+      <c r="Q10">
+        <v>0.784119487699</v>
+      </c>
+      <c r="R10">
+        <v>4.704716926193999</v>
+      </c>
+      <c r="S10">
+        <v>0.004258688710464352</v>
+      </c>
+      <c r="T10">
+        <v>0.004762278754457029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.470643</v>
+      </c>
+      <c r="H11">
+        <v>8.941286</v>
+      </c>
+      <c r="I11">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J11">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.090517</v>
+      </c>
+      <c r="N11">
+        <v>0.271551</v>
+      </c>
+      <c r="O11">
+        <v>0.006329036627448615</v>
+      </c>
+      <c r="P11">
+        <v>0.009387307183674753</v>
+      </c>
+      <c r="Q11">
+        <v>0.404669192431</v>
+      </c>
+      <c r="R11">
+        <v>2.428015154586</v>
+      </c>
+      <c r="S11">
+        <v>0.002197828453844235</v>
+      </c>
+      <c r="T11">
+        <v>0.002457721722173558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.470643</v>
+      </c>
+      <c r="H12">
+        <v>8.941286</v>
+      </c>
+      <c r="I12">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J12">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.173501</v>
+      </c>
+      <c r="O12">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P12">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q12">
+        <v>0.2585536770476666</v>
+      </c>
+      <c r="R12">
+        <v>1.551322062286</v>
+      </c>
+      <c r="S12">
+        <v>0.001404249789433397</v>
+      </c>
+      <c r="T12">
+        <v>0.0015703023613201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.470643</v>
+      </c>
+      <c r="H13">
+        <v>8.941286</v>
+      </c>
+      <c r="I13">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J13">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.978117</v>
+      </c>
+      <c r="N13">
+        <v>27.956234</v>
+      </c>
+      <c r="O13">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P13">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q13">
+        <v>62.491170919231</v>
+      </c>
+      <c r="R13">
+        <v>249.964683676924</v>
+      </c>
+      <c r="S13">
+        <v>0.3394003698063768</v>
+      </c>
+      <c r="T13">
+        <v>0.2530229812151934</v>
       </c>
     </row>
   </sheetData>
